--- a/public/images/Cover Crop Photos/Cover Crop Photos - Thumbnails.xlsx
+++ b/public/images/Cover Crop Photos/Cover Crop Photos - Thumbnails.xlsx
@@ -10,8 +10,33 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="C3">
+      <text>
+        <t xml:space="preserve">@julietnorton@gmail.com Do we want to use the same photo for both entries (applies here and in a few other places). I actually think that visually it might be better to use two different pics, if we have them.
+_Assigned to Juliet Norton_
+	-Victoria J Ackroyd
+Yea, if we can find different photos, that would be great.
+	-Juliet Norton
+The reason why i used hte same was because there were no photos for winter wheat or spring triticale, for example. I thought that was by design. because htey look the same. or do they not?
+	-Juliet Norton
+They do basically look the same, yes. We do have two photos for wheat, though maybe you don't want to use two different maturity stages for thumbnails?
+	-Victoria J Ackroyd
+Right, we want mature or flowering photos for the thumbnails.
+	-Juliet Norton</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="98">
   <si>
     <t>Cover Crop</t>
   </si>
@@ -22,6 +47,9 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>Directory</t>
+  </si>
+  <si>
     <t>Wheat, Winter</t>
   </si>
   <si>
@@ -73,7 +101,38 @@
     <t>Sweetclover, Yellow</t>
   </si>
   <si>
-    <t>Need image with flower</t>
+    <t>Sweetclover_Yellow_flowering_PublicDomain_2017.jpg</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">public domain, </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://www.flickr.com/photos/archesnps/34868758793/</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">Old Image came from here: </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <u/>
+      </rPr>
+      <t>https://www.flickr.com/photos/nhoulihan/3764127336</t>
+    </r>
   </si>
   <si>
     <t>Sunn Hemp</t>
@@ -97,7 +156,7 @@
     <t>Soybeans</t>
   </si>
   <si>
-    <t>Need Closer Image</t>
+    <t>Soybean_mature_Ackroyd_2020.jpg</t>
   </si>
   <si>
     <t>Sorghum Sudangrass</t>
@@ -115,7 +174,7 @@
     <t>Ryegrass, Perennial</t>
   </si>
   <si>
-    <t>Need more mature image</t>
+    <t>Ryegrass_perennial_flowering_Ziegler_2020.jpg</t>
   </si>
   <si>
     <t>Ryegrass, Annual</t>
@@ -169,13 +228,19 @@
     <t>In Oats Directory</t>
   </si>
   <si>
+    <t>Oats</t>
+  </si>
+  <si>
     <t>Oats, Spring</t>
   </si>
   <si>
     <t>Oats, Black</t>
   </si>
   <si>
-    <t>Need closer image</t>
+    <t>Oats_black_mature_Eagen_2020.jpg</t>
+  </si>
+  <si>
+    <t>New uploads were out of focus/grainy. Still need to find close-up that looks good.</t>
   </si>
   <si>
     <t>Mustard</t>
@@ -235,13 +300,25 @@
     <t>Clover, Balansa</t>
   </si>
   <si>
-    <t>Need Closer Image, With Flower</t>
+    <t>Clover_balansa_flowering_WikimediaCommons_2008.JPG</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CC license 3.0: </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://commons.wikimedia.org/wiki/File:Trifolium_michelianum_Savi_cultivar_Paradana.JPG</t>
+    </r>
   </si>
   <si>
     <t>Clover, Alsike</t>
   </si>
   <si>
-    <t>MISSING</t>
+    <t>Clover_alsike_flowering_Ziegler_2020.jpg</t>
   </si>
   <si>
     <t>Cereal Rye, Winter</t>
@@ -259,6 +336,9 @@
     <t>Canola</t>
   </si>
   <si>
+    <t>Rapeseed_flowering_Raubenstein_2020.jpg</t>
+  </si>
+  <si>
     <t>Buckwheat</t>
   </si>
   <si>
@@ -271,29 +351,26 @@
     <t>Brassica_flowering_pollinator_Kelly Gill_2020.jpg</t>
   </si>
   <si>
-    <t>Barley, Winter</t>
-  </si>
-  <si>
     <t>Barley_flowering_Eagen_2020.jpg</t>
   </si>
   <si>
     <t>Barley, Spring</t>
   </si>
   <si>
-    <t>Barley_flowering_Raubenstein_2020.jPG</t>
+    <t>Barley_flowering_Brouillette_2020.jpg</t>
   </si>
   <si>
     <t>Alfalfa</t>
   </si>
   <si>
-    <t>Need a close image that is not blurry</t>
+    <t>Alfalfa_mature_Ziegler_2020.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -307,9 +384,6 @@
     </font>
     <font>
       <b/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -318,11 +392,33 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
-    <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="12.0"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="2">
@@ -339,7 +435,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -349,15 +445,27 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -580,7 +688,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="29.86"/>
     <col customWidth="1" min="2" max="2" width="52.86"/>
-    <col customWidth="1" min="3" max="3" width="35.43"/>
+    <col customWidth="1" min="3" max="3" width="64.29"/>
+    <col customWidth="1" min="4" max="4" width="26.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -593,7 +702,9 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -619,380 +730,539 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>20</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>27</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>74</v>
+        <v>78</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>76</v>
+        <v>81</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>28</v>
+        <v>87</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>85</v>
+        <v>92</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>87</v>
+        <v>93</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="C10"/>
+    <hyperlink r:id="rId3" ref="E10"/>
+    <hyperlink r:id="rId4" ref="C37"/>
+  </hyperlinks>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>